--- a/Status Reports/Projects/Justin_Popes_Projects_2023.xlsx
+++ b/Status Reports/Projects/Justin_Popes_Projects_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Status Reports\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5506F-15D2-4B95-8BC0-9FBF78AC7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20973B62-97D4-478B-B8E1-0C80D7BE8D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14535" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{7FCAA3D1-8F9C-4570-9EB2-043186F205B0}"/>
+    <workbookView xWindow="-120" yWindow="-32520" windowWidth="29040" windowHeight="15720" xr2:uid="{7FCAA3D1-8F9C-4570-9EB2-043186F205B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Justin's Projects</t>
   </si>
@@ -105,16 +105,7 @@
     <t>Actual Effort</t>
   </si>
   <si>
-    <t>SQL Objects</t>
-  </si>
-  <si>
-    <t>.Net Service Modifications</t>
-  </si>
-  <si>
     <t>Unit Testing</t>
-  </si>
-  <si>
-    <t>Actual</t>
   </si>
   <si>
     <t>Sign Off</t>
@@ -127,9 +118,6 @@
   </si>
   <si>
     <t>Rollout plan</t>
-  </si>
-  <si>
-    <t>Signoff</t>
   </si>
   <si>
     <t>Tickets</t>
@@ -169,6 +157,15 @@
   </si>
   <si>
     <t>START Date</t>
+  </si>
+  <si>
+    <t>SDM 31845 - Split Shipped Orders</t>
+  </si>
+  <si>
+    <t>SDM 38285  - Job Closue Errors</t>
+  </si>
+  <si>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -257,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -542,42 +539,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -618,9 +584,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -645,9 +608,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -708,9 +668,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -735,33 +692,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,66 +706,33 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <left style="thin">
@@ -1219,20 +1119,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6D74B9-8639-4545-B541-2C9CA032A77A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" style="3" customWidth="1"/>
@@ -1262,7 +1162,7 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>44928</v>
@@ -1270,61 +1170,61 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="52">
         <f>K5</f>
         <v>45061</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="63">
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="52">
         <f>R5</f>
         <v>45068</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="63">
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="52">
         <f>Y5</f>
         <v>45075</v>
       </c>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="63">
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="52">
         <f>AF5</f>
         <v>45082</v>
       </c>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="63">
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="52">
         <f>AM5</f>
         <v>45089</v>
       </c>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="65"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="54"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
@@ -1350,143 +1250,143 @@
       <c r="BP4" s="5"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="K5" s="24">
+      <c r="K5" s="22">
         <f>$B$2 +(($B$4-1)*7)</f>
         <v>45061</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f>K5+1</f>
         <v>45062</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <f t="shared" ref="M5:R5" si="0">L5+1</f>
         <v>45063</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f t="shared" si="0"/>
         <v>45064</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <f t="shared" si="0"/>
         <v>45065</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="23">
         <f t="shared" si="0"/>
         <v>45066</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="24">
         <f t="shared" si="0"/>
         <v>45067</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="22">
         <f t="shared" si="0"/>
         <v>45068</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="23">
         <f>R5+1</f>
         <v>45069</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="23">
         <f t="shared" ref="T5:Y5" si="1">S5+1</f>
         <v>45070</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="23">
         <f t="shared" si="1"/>
         <v>45071</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <f t="shared" si="1"/>
         <v>45072</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="23">
         <f t="shared" si="1"/>
         <v>45073</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="24">
         <f t="shared" si="1"/>
         <v>45074</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="22">
         <f t="shared" si="1"/>
         <v>45075</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="23">
         <f>Y5+1</f>
         <v>45076</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AA5" s="23">
         <f t="shared" ref="AA5:AF5" si="2">Z5+1</f>
         <v>45077</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AB5" s="23">
         <f t="shared" si="2"/>
         <v>45078</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="23">
         <f t="shared" si="2"/>
         <v>45079</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="23">
         <f t="shared" si="2"/>
         <v>45080</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AE5" s="24">
         <f t="shared" si="2"/>
         <v>45081</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="22">
         <f t="shared" si="2"/>
         <v>45082</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="23">
         <f>AF5+1</f>
         <v>45083</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AH5" s="23">
         <f t="shared" ref="AH5:AM5" si="3">AG5+1</f>
         <v>45084</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AI5" s="23">
         <f t="shared" si="3"/>
         <v>45085</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AJ5" s="23">
         <f t="shared" si="3"/>
         <v>45086</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AK5" s="23">
         <f t="shared" si="3"/>
         <v>45087</v>
       </c>
-      <c r="AL5" s="26">
+      <c r="AL5" s="24">
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="22">
         <f t="shared" si="3"/>
         <v>45089</v>
       </c>
-      <c r="AN5" s="25">
+      <c r="AN5" s="23">
         <f>AM5+1</f>
         <v>45090</v>
       </c>
-      <c r="AO5" s="25">
+      <c r="AO5" s="23">
         <f t="shared" ref="AO5:AS5" si="4">AN5+1</f>
         <v>45091</v>
       </c>
-      <c r="AP5" s="25">
+      <c r="AP5" s="23">
         <f t="shared" si="4"/>
         <v>45092</v>
       </c>
-      <c r="AQ5" s="25">
+      <c r="AQ5" s="23">
         <f t="shared" si="4"/>
         <v>45093</v>
       </c>
-      <c r="AR5" s="25">
+      <c r="AR5" s="23">
         <f t="shared" si="4"/>
         <v>45094</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="24">
         <f t="shared" si="4"/>
         <v>45095</v>
       </c>
@@ -1514,14 +1414,14 @@
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
     </row>
-    <row r="6" spans="1:68" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:68" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1530,229 +1430,231 @@
       <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="42" t="str">
         <f>LEFT(TEXT(K5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="L6" s="46" t="str">
+      <c r="L6" s="43" t="str">
         <f t="shared" ref="L6:Q6" si="5">LEFT(TEXT(L5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="M6" s="46" t="str">
+      <c r="M6" s="43" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="N6" s="46" t="str">
+      <c r="N6" s="43" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="O6" s="46" t="str">
+      <c r="O6" s="43" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="P6" s="46" t="str">
+      <c r="P6" s="43" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Q6" s="47" t="str">
+      <c r="Q6" s="44" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="R6" s="45" t="str">
+      <c r="R6" s="42" t="str">
         <f>LEFT(TEXT(R5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="S6" s="46" t="str">
+      <c r="S6" s="43" t="str">
         <f t="shared" ref="S6" si="6">LEFT(TEXT(S5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="T6" s="46" t="str">
+      <c r="T6" s="43" t="str">
         <f t="shared" ref="T6" si="7">LEFT(TEXT(T5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="U6" s="46" t="str">
+      <c r="U6" s="43" t="str">
         <f t="shared" ref="U6" si="8">LEFT(TEXT(U5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="V6" s="46" t="str">
+      <c r="V6" s="43" t="str">
         <f t="shared" ref="V6" si="9">LEFT(TEXT(V5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="W6" s="46" t="str">
+      <c r="W6" s="43" t="str">
         <f t="shared" ref="W6" si="10">LEFT(TEXT(W5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="X6" s="47" t="str">
+      <c r="X6" s="44" t="str">
         <f t="shared" ref="X6" si="11">LEFT(TEXT(X5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="Y6" s="45" t="str">
+      <c r="Y6" s="42" t="str">
         <f>LEFT(TEXT(Y5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="Z6" s="46" t="str">
+      <c r="Z6" s="43" t="str">
         <f t="shared" ref="Z6" si="12">LEFT(TEXT(Z5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AA6" s="46" t="str">
+      <c r="AA6" s="43" t="str">
         <f t="shared" ref="AA6" si="13">LEFT(TEXT(AA5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AB6" s="46" t="str">
+      <c r="AB6" s="43" t="str">
         <f t="shared" ref="AB6" si="14">LEFT(TEXT(AB5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AC6" s="46" t="str">
+      <c r="AC6" s="43" t="str">
         <f t="shared" ref="AC6" si="15">LEFT(TEXT(AC5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AD6" s="46" t="str">
+      <c r="AD6" s="43" t="str">
         <f t="shared" ref="AD6" si="16">LEFT(TEXT(AD5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AE6" s="47" t="str">
+      <c r="AE6" s="44" t="str">
         <f t="shared" ref="AE6" si="17">LEFT(TEXT(AE5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AF6" s="45" t="str">
+      <c r="AF6" s="42" t="str">
         <f>LEFT(TEXT(AF5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AG6" s="46" t="str">
+      <c r="AG6" s="43" t="str">
         <f t="shared" ref="AG6" si="18">LEFT(TEXT(AG5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AH6" s="46" t="str">
+      <c r="AH6" s="43" t="str">
         <f t="shared" ref="AH6" si="19">LEFT(TEXT(AH5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AI6" s="46" t="str">
+      <c r="AI6" s="43" t="str">
         <f t="shared" ref="AI6" si="20">LEFT(TEXT(AI5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AJ6" s="46" t="str">
+      <c r="AJ6" s="43" t="str">
         <f t="shared" ref="AJ6" si="21">LEFT(TEXT(AJ5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AK6" s="46" t="str">
+      <c r="AK6" s="43" t="str">
         <f t="shared" ref="AK6" si="22">LEFT(TEXT(AK5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AL6" s="47" t="str">
+      <c r="AL6" s="44" t="str">
         <f t="shared" ref="AL6" si="23">LEFT(TEXT(AL5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AM6" s="45" t="str">
+      <c r="AM6" s="42" t="str">
         <f>LEFT(TEXT(AM5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AN6" s="46" t="str">
+      <c r="AN6" s="43" t="str">
         <f t="shared" ref="AN6" si="24">LEFT(TEXT(AN5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AO6" s="46" t="str">
+      <c r="AO6" s="43" t="str">
         <f t="shared" ref="AO6" si="25">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AP6" s="46" t="str">
+      <c r="AP6" s="43" t="str">
         <f t="shared" ref="AP6" si="26">LEFT(TEXT(AP5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AQ6" s="46" t="str">
+      <c r="AQ6" s="43" t="str">
         <f t="shared" ref="AQ6" si="27">LEFT(TEXT(AQ5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AR6" s="46" t="str">
+      <c r="AR6" s="43" t="str">
         <f t="shared" ref="AR6" si="28">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AS6" s="47" t="str">
+      <c r="AS6" s="44" t="str">
         <f t="shared" ref="AS6" si="29">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>44927</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>30</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="35">
         <v>44967</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <v>44927</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="36">
         <v>22</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <f t="shared" ref="H7:H12" ca="1" si="30">IF(ISBLANK($I7), IF($F7 &gt; TODAY(), $F7, TODAY()) + (($D7-IF(ISBLANK($G7),0,$G7))/8), $I7)</f>
-        <v>45087</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="39">
+        <v>45037</v>
+      </c>
+      <c r="I7" s="35">
+        <v>45037</v>
+      </c>
+      <c r="J7" s="37">
         <f t="shared" ref="J7:J13" si="31">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="48"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="45"/>
     </row>
     <row r="8" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1771,16 +1673,18 @@
       <c r="G8" s="13">
         <v>20</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <f t="shared" ca="1" si="30"/>
-        <v>45086</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="22">
+        <v>45078</v>
+      </c>
+      <c r="I8" s="12">
+        <v>45078</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -1814,10 +1718,10 @@
       <c r="AP8" s="11"/>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="49"/>
+      <c r="AS8" s="46"/>
     </row>
     <row r="9" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1836,18 +1740,18 @@
       <c r="G9" s="13">
         <v>120</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="28">
         <f ca="1">IF(ISBLANK($I9), IF($F9 &gt; TODAY(), $F9, TODAY()) + (($D9-IF(ISBLANK($G9),0,$G9))/8), $I9)</f>
         <v>45023</v>
       </c>
       <c r="I9" s="12">
         <v>45023</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1881,10 +1785,10 @@
       <c r="AP9" s="11"/>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
-      <c r="AS9" s="49"/>
+      <c r="AS9" s="46"/>
     </row>
     <row r="10" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1903,18 +1807,18 @@
       <c r="G10" s="13">
         <v>120</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="28">
         <f t="shared" ca="1" si="30"/>
         <v>45044</v>
       </c>
       <c r="I10" s="12">
         <v>45044</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <f t="shared" si="31"/>
         <v>30</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1948,10 +1852,10 @@
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="49"/>
+      <c r="AS10" s="46"/>
     </row>
     <row r="11" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1964,22 +1868,22 @@
       <c r="E11" s="12">
         <v>45026</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="13">
         <v>4</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="28">
         <f t="shared" ca="1" si="30"/>
         <v>45061</v>
       </c>
       <c r="I11" s="12">
         <v>45061</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -2013,38 +1917,38 @@
       <c r="AP11" s="11"/>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
-      <c r="AS11" s="49"/>
+      <c r="AS11" s="46"/>
     </row>
     <row r="12" spans="1:68" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>45005</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>8</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>45012</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>8</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="28">
         <f t="shared" ca="1" si="30"/>
         <v>45086</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <v>45086</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="29">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -2078,49 +1982,49 @@
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="49"/>
+      <c r="AS12" s="46"/>
     </row>
     <row r="13" spans="1:68" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="40">
+      <c r="B13" s="41"/>
+      <c r="C13" s="38">
         <f ca="1">MIN(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <f>SUM(D7,D8,D9,D10,D11,D12)</f>
         <v>146</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <f>MAX(E7:E12)</f>
         <v>45026</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <f>MIN(F7:F12)</f>
         <v>44927</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f>SUM(G7:G12)</f>
         <v>294</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <f ca="1">MAX(H7:H12)</f>
-        <v>45087</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="44">
+        <v>45086</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="55">
         <f t="shared" si="31"/>
         <v>2.0136986301369864</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2148,35 +2052,38 @@
       <c r="AP13" s="11"/>
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
-      <c r="AS13" s="49"/>
+      <c r="AS13" s="46"/>
     </row>
     <row r="14" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <v>44927</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>40</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="35">
         <v>44981</v>
       </c>
-      <c r="F14" s="37">
-        <v>44927</v>
-      </c>
-      <c r="G14" s="38">
+      <c r="F14" s="35">
+        <v>45108</v>
+      </c>
+      <c r="G14" s="36">
         <v>20</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="39">
-        <f t="shared" ref="J14:J25" si="32">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
+      <c r="H14" s="12">
+        <f t="shared" ref="H14:H21" ca="1" si="32">IF(ISBLANK($I14), IF($F14 &gt; TODAY(), $F14, TODAY()) + (($D14-IF(ISBLANK($G14),0,$G14))/8), $I14)</f>
+        <v>45110.5</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="56">
+        <f t="shared" ref="J14:J22" si="33">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.5</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -2210,10 +2117,10 @@
       <c r="AP14" s="11"/>
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
-      <c r="AS14" s="49"/>
+      <c r="AS14" s="46"/>
     </row>
     <row r="15" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
@@ -2222,15 +2129,18 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="22">
-        <f t="shared" si="32"/>
+      <c r="J15" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -2264,25 +2174,28 @@
       <c r="AP15" s="11"/>
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
-      <c r="AS15" s="49"/>
+      <c r="AS15" s="46"/>
     </row>
     <row r="16" spans="1:68" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="22">
-        <f t="shared" si="32"/>
+      <c r="J16" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -2316,25 +2229,28 @@
       <c r="AP16" s="11"/>
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
-      <c r="AS16" s="49"/>
+      <c r="AS16" s="46"/>
     </row>
     <row r="17" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="22">
-        <f t="shared" si="32"/>
+      <c r="J17" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2368,25 +2284,28 @@
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
-      <c r="AS17" s="49"/>
+      <c r="AS17" s="46"/>
     </row>
     <row r="18" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="22">
-        <f t="shared" si="32"/>
+      <c r="J18" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -2420,25 +2339,28 @@
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
-      <c r="AS18" s="49"/>
+      <c r="AS18" s="46"/>
     </row>
     <row r="19" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="22">
-        <f t="shared" si="32"/>
+      <c r="J19" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -2472,25 +2394,28 @@
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
-      <c r="AS19" s="49"/>
+      <c r="AS19" s="46"/>
     </row>
     <row r="20" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="22">
-        <f t="shared" si="32"/>
+      <c r="J20" s="57">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2524,25 +2449,28 @@
       <c r="AP20" s="11"/>
       <c r="AQ20" s="11"/>
       <c r="AR20" s="11"/>
-      <c r="AS20" s="49"/>
-    </row>
-    <row r="21" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AS20" s="46"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="22">
-        <f t="shared" si="32"/>
+      <c r="B21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="12">
+        <f t="shared" ca="1" si="32"/>
+        <v>45089</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="58">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -2576,25 +2504,43 @@
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
-      <c r="AS21" s="49"/>
-    </row>
-    <row r="22" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="22">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
+      <c r="AS21" s="46"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31">
+        <f>MIN(C14:C21)</f>
+        <v>44927</v>
+      </c>
+      <c r="D22" s="32">
+        <f>SUM(D14:D21)</f>
+        <v>40</v>
+      </c>
+      <c r="E22" s="31">
+        <f>MAX(E14:E21)</f>
+        <v>44981</v>
+      </c>
+      <c r="F22" s="31">
+        <f>MIN(F14:F21)</f>
+        <v>45108</v>
+      </c>
+      <c r="G22" s="32">
+        <f>SUM(G14:G21)</f>
+        <v>20</v>
+      </c>
+      <c r="H22" s="31">
+        <f ca="1">MAX(H14:H21)</f>
+        <v>45110.5</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="59">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="15"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2628,77 +2574,54 @@
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
-      <c r="AS22" s="49"/>
-    </row>
-    <row r="23" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="22">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="49"/>
-    </row>
-    <row r="24" spans="1:45" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="16"/>
+      <c r="AS22" s="46"/>
+    </row>
+    <row r="23" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="49"/>
+      <c r="AS23" s="51"/>
+    </row>
+    <row r="24" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44927</v>
+      </c>
+      <c r="D24" s="13">
+        <v>405.7</v>
+      </c>
+      <c r="E24" s="12">
+        <v>45006</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44927</v>
+      </c>
+      <c r="G24" s="13">
+        <v>365.7</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24:H29" ca="1" si="34">IF(ISBLANK($I24), IF($F24 &gt; TODAY(), $F24, TODAY()) + (($D24-IF(ISBLANK($G24),0,$G24))/8), $I24)</f>
+        <v>45006</v>
+      </c>
+      <c r="I24" s="12">
+        <v>45006</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" ref="J24:J30" si="35">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
+        <v>0.9014049790485581</v>
+      </c>
+      <c r="K24" s="15"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2732,43 +2655,38 @@
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
-      <c r="AS24" s="49"/>
-    </row>
-    <row r="25" spans="1:45" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33">
-        <f>MIN(C14:C24)</f>
-        <v>44927</v>
-      </c>
-      <c r="D25" s="34">
-        <f>SUM(D14:D24)</f>
-        <v>40</v>
-      </c>
-      <c r="E25" s="33">
-        <f>MAX(E14:E24)</f>
-        <v>44981</v>
-      </c>
-      <c r="F25" s="33">
-        <f>MIN(F14:F24)</f>
-        <v>44927</v>
-      </c>
-      <c r="G25" s="34">
-        <f>SUM(G14:G24)</f>
-        <v>20</v>
-      </c>
-      <c r="H25" s="33">
-        <f>MAX(H14:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="56">
-        <f t="shared" si="32"/>
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="16"/>
+      <c r="AS24" s="46"/>
+    </row>
+    <row r="25" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45075</v>
+      </c>
+      <c r="D25" s="13">
+        <v>60</v>
+      </c>
+      <c r="E25" s="12">
+        <v>45086</v>
+      </c>
+      <c r="F25" s="12">
+        <v>45075</v>
+      </c>
+      <c r="G25" s="13">
+        <v>49</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" ca="1" si="34"/>
+        <v>45090.375</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="57">
+        <f t="shared" si="35"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="K25" s="15"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -2802,51 +2720,96 @@
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
-      <c r="AS25" s="49"/>
+      <c r="AS25" s="46"/>
     </row>
     <row r="26" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="52"/>
-      <c r="AS26" s="62"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45089</v>
+      </c>
+      <c r="D26" s="13">
+        <v>16</v>
+      </c>
+      <c r="E26" s="12">
+        <v>45093</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12">
+        <f t="shared" ca="1" si="34"/>
+        <v>45091</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="57">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="46"/>
     </row>
     <row r="27" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>44927</v>
+        <f>MIN(C28:C28)</f>
+        <v>44967</v>
       </c>
       <c r="D27" s="13">
-        <v>405.7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="12">
         <v>45006</v>
       </c>
-      <c r="F27" s="12">
-        <v>44927</v>
-      </c>
-      <c r="G27" s="13">
-        <v>140</v>
-      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="12">
-        <v>45006</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>45089.5</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="22">
-        <f t="shared" ref="J27:J34" si="33">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
-        <v>0.34508257333004683</v>
-      </c>
-      <c r="K27" s="16"/>
+      <c r="J27" s="57">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -2880,26 +2843,34 @@
       <c r="AP27" s="11"/>
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
-      <c r="AS27" s="49"/>
+      <c r="AS27" s="46"/>
     </row>
     <row r="28" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="30">
-        <v>45075</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30">
-        <v>45086</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="12">
+        <v>44967</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12">
+        <v>45006</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12">
+        <f t="shared" ca="1" si="34"/>
+        <v>45089.5</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="57">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -2933,30 +2904,34 @@
       <c r="AP28" s="11"/>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
-      <c r="AS28" s="49"/>
-    </row>
-    <row r="29" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="30">
-        <f>MIN(C30:C32)</f>
-        <v>44967</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="22">
-        <f t="shared" si="33"/>
+      <c r="AS28" s="46"/>
+    </row>
+    <row r="29" spans="1:45" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45019</v>
+      </c>
+      <c r="D29" s="13">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>45023</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12">
+        <f t="shared" ca="1" si="34"/>
+        <v>45090</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="57">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -2990,29 +2965,43 @@
       <c r="AP29" s="11"/>
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
-      <c r="AS29" s="49"/>
-    </row>
-    <row r="30" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="30">
-        <v>44967</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30">
-        <v>45006</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="22">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="16"/>
+      <c r="AS29" s="46"/>
+    </row>
+    <row r="30" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="38">
+        <f>MIN(C23:C29)</f>
+        <v>44927</v>
+      </c>
+      <c r="D30" s="39">
+        <f>SUM(D23:D29)</f>
+        <v>497.7</v>
+      </c>
+      <c r="E30" s="38">
+        <f>MAX(E23:E29)</f>
+        <v>45093</v>
+      </c>
+      <c r="F30" s="38">
+        <f>MIN(F23:F29)</f>
+        <v>44927</v>
+      </c>
+      <c r="G30" s="39">
+        <f>SUM(G23:G29)</f>
+        <v>414.7</v>
+      </c>
+      <c r="H30" s="38">
+        <f ca="1">MAX(H23:H29)</f>
+        <v>45091</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="55">
+        <f t="shared" si="35"/>
+        <v>0.83323287120755474</v>
+      </c>
+      <c r="K30" s="15"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -3046,29 +3035,37 @@
       <c r="AP30" s="11"/>
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
-      <c r="AS30" s="49"/>
+      <c r="AS30" s="46"/>
     </row>
     <row r="31" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="30">
-        <v>45012</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30">
-        <v>45016</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="22">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="16"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45192</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45086</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45068</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31:H36" ca="1" si="36">IF(ISBLANK($I31), IF($F31 &gt; TODAY(), $F31, TODAY()) + (($D31-IF(ISBLANK($G31),0,$G31))/8), $I31)</f>
+        <v>45089.625</v>
+      </c>
+      <c r="J31" s="60">
+        <f t="shared" ref="J31:J44" si="37">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K31" s="15"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -3102,29 +3099,38 @@
       <c r="AP31" s="11"/>
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
-      <c r="AS31" s="49"/>
+      <c r="AS31" s="46"/>
     </row>
     <row r="32" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="30">
-        <v>45019</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30">
-        <v>45019</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="22">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="16"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="28">
+        <v>44999</v>
+      </c>
+      <c r="D32" s="27">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28">
+        <v>45086</v>
+      </c>
+      <c r="F32" s="28">
+        <v>45047</v>
+      </c>
+      <c r="G32" s="27">
+        <v>35</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" ca="1" si="36"/>
+        <v>45093.375</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="57">
+        <f t="shared" si="37"/>
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="15"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -3158,31 +3164,36 @@
       <c r="AP32" s="11"/>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
-      <c r="AS32" s="49"/>
-    </row>
-    <row r="33" spans="1:45" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="19">
-        <v>45019</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19">
-        <v>45023</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19">
-        <v>45023</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="23">
-        <f t="shared" si="33"/>
+      <c r="AS32" s="46"/>
+    </row>
+    <row r="33" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="28">
+        <v>44938</v>
+      </c>
+      <c r="D33" s="27">
+        <v>10</v>
+      </c>
+      <c r="E33" s="28">
+        <v>45086</v>
+      </c>
+      <c r="F33" s="28">
+        <v>45084</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28">
+        <f t="shared" ca="1" si="36"/>
+        <v>45090.25</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="57">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -3216,43 +3227,38 @@
       <c r="AP33" s="11"/>
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
-      <c r="AS33" s="49"/>
-    </row>
-    <row r="34" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="40">
-        <f>MIN(C26:C33)</f>
-        <v>44927</v>
-      </c>
-      <c r="D34" s="41">
-        <f>SUM(D26:D33)</f>
-        <v>405.7</v>
-      </c>
-      <c r="E34" s="40">
-        <f>MAX(E26:E33)</f>
+      <c r="AS33" s="46"/>
+    </row>
+    <row r="34" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="28">
+        <v>44943</v>
+      </c>
+      <c r="D34" s="27">
+        <v>5</v>
+      </c>
+      <c r="E34" s="28">
         <v>45086</v>
       </c>
-      <c r="F34" s="40">
-        <f>MIN(F26:F33)</f>
-        <v>44927</v>
-      </c>
-      <c r="G34" s="41">
-        <f>SUM(G26:G33)</f>
-        <v>140</v>
-      </c>
-      <c r="H34" s="40">
-        <f>MAX(H26:H33)</f>
-        <v>45023</v>
-      </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="44">
-        <f t="shared" si="33"/>
-        <v>0.34508257333004683</v>
-      </c>
-      <c r="K34" s="16"/>
+      <c r="F34" s="28">
+        <v>45079</v>
+      </c>
+      <c r="G34" s="27">
+        <v>4</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" ca="1" si="36"/>
+        <v>45089.125</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="57">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+      <c r="K34" s="15"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -3286,37 +3292,38 @@
       <c r="AP34" s="11"/>
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
-      <c r="AS34" s="49"/>
+      <c r="AS34" s="46"/>
     </row>
     <row r="35" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="52"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="3">
-        <v>45192</v>
-      </c>
-      <c r="D35" s="2">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3">
-        <v>45086</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45068</v>
-      </c>
-      <c r="G35" s="2">
-        <v>10</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" ref="H35:H41" ca="1" si="34">IF(ISBLANK($I35), IF($F35 &gt; TODAY(), $F35, TODAY()) + (($D35-IF(ISBLANK($G35),0,$G35))/8), $I35)</f>
-        <v>45086.625</v>
-      </c>
-      <c r="J35" s="53">
-        <f t="shared" ref="J35:J43" si="35">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K35" s="16"/>
+      <c r="C35" s="28">
+        <v>45076</v>
+      </c>
+      <c r="D35" s="27">
+        <v>4</v>
+      </c>
+      <c r="E35" s="28">
+        <v>45093</v>
+      </c>
+      <c r="F35" s="28">
+        <v>45075</v>
+      </c>
+      <c r="G35" s="27">
+        <v>6</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" ca="1" si="36"/>
+        <v>45088.75</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="57">
+        <f t="shared" si="37"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="15"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -3350,38 +3357,38 @@
       <c r="AP35" s="11"/>
       <c r="AQ35" s="11"/>
       <c r="AR35" s="11"/>
-      <c r="AS35" s="49"/>
+      <c r="AS35" s="46"/>
     </row>
     <row r="36" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="30">
-        <v>44999</v>
-      </c>
-      <c r="D36" s="29">
-        <v>70</v>
-      </c>
-      <c r="E36" s="30">
-        <v>45086</v>
-      </c>
-      <c r="F36" s="30">
-        <v>45047</v>
-      </c>
-      <c r="G36" s="29">
-        <v>35</v>
-      </c>
-      <c r="H36" s="30">
-        <f t="shared" ca="1" si="34"/>
-        <v>45090.375</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="22">
-        <f t="shared" si="35"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="28">
+        <v>45073</v>
+      </c>
+      <c r="D36" s="27">
+        <v>6</v>
+      </c>
+      <c r="E36" s="28">
+        <v>45093</v>
+      </c>
+      <c r="F36" s="28">
+        <v>45073</v>
+      </c>
+      <c r="G36" s="27">
+        <v>3</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" ca="1" si="36"/>
+        <v>45089.375</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="57">
+        <f t="shared" si="37"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -3415,36 +3422,28 @@
       <c r="AP36" s="11"/>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
-      <c r="AS36" s="49"/>
+      <c r="AS36" s="46"/>
     </row>
     <row r="37" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="30">
-        <v>44938</v>
-      </c>
-      <c r="D37" s="29">
-        <v>10</v>
-      </c>
-      <c r="E37" s="30">
-        <v>45086</v>
-      </c>
-      <c r="F37" s="30">
-        <v>45084</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30">
-        <f t="shared" ca="1" si="34"/>
-        <v>45087.25</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="22">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="16"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="28">
+        <v>44785</v>
+      </c>
+      <c r="D37" s="27">
+        <v>5</v>
+      </c>
+      <c r="E37" s="28">
+        <v>45107</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -3478,38 +3477,28 @@
       <c r="AP37" s="11"/>
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
-      <c r="AS37" s="49"/>
+      <c r="AS37" s="46"/>
     </row>
     <row r="38" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="30">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="28">
         <v>44943</v>
       </c>
-      <c r="D38" s="29">
-        <v>5</v>
-      </c>
-      <c r="E38" s="30">
+      <c r="D38" s="27">
+        <v>10</v>
+      </c>
+      <c r="E38" s="28">
         <v>45086</v>
       </c>
-      <c r="F38" s="30">
-        <v>45079</v>
-      </c>
-      <c r="G38" s="29">
-        <v>4</v>
-      </c>
-      <c r="H38" s="30">
-        <f t="shared" ca="1" si="34"/>
-        <v>45086.125</v>
-      </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="22">
-        <f t="shared" si="35"/>
-        <v>0.8</v>
-      </c>
-      <c r="K38" s="16"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3543,38 +3532,28 @@
       <c r="AP38" s="11"/>
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
-      <c r="AS38" s="49"/>
+      <c r="AS38" s="46"/>
     </row>
     <row r="39" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="30">
-        <v>45076</v>
-      </c>
-      <c r="D39" s="29">
-        <v>4</v>
-      </c>
-      <c r="E39" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F39" s="30">
-        <v>45075</v>
-      </c>
-      <c r="G39" s="29">
-        <v>6</v>
-      </c>
-      <c r="H39" s="30">
-        <f t="shared" ca="1" si="34"/>
-        <v>45085.75</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="22">
-        <f t="shared" si="35"/>
-        <v>1.5</v>
-      </c>
-      <c r="K39" s="16"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="28">
+        <v>45041</v>
+      </c>
+      <c r="D39" s="27">
+        <v>15</v>
+      </c>
+      <c r="E39" s="28">
+        <v>45107</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -3608,37 +3587,20 @@
       <c r="AP39" s="11"/>
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
-      <c r="AS39" s="49"/>
-    </row>
-    <row r="40" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="30">
-        <v>45076</v>
-      </c>
-      <c r="D40" s="29">
-        <v>6</v>
-      </c>
-      <c r="E40" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F40" s="30">
-        <v>45075</v>
-      </c>
-      <c r="G40" s="29">
-        <v>10</v>
-      </c>
-      <c r="H40" s="30">
-        <v>45084</v>
-      </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="22">
-        <f t="shared" si="35"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K40" s="16"/>
+      <c r="AS39" s="46"/>
+    </row>
+    <row r="40" spans="1:45" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -3672,38 +3634,46 @@
       <c r="AP40" s="11"/>
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
-      <c r="AS40" s="49"/>
-    </row>
-    <row r="41" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="30">
-        <v>45073</v>
-      </c>
-      <c r="D41" s="29">
-        <v>6</v>
-      </c>
-      <c r="E41" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F41" s="30">
-        <v>45073</v>
-      </c>
-      <c r="G41" s="29">
-        <v>3</v>
-      </c>
-      <c r="H41" s="30">
-        <f t="shared" ca="1" si="34"/>
-        <v>45086.375</v>
-      </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="22">
-        <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="16"/>
+      <c r="AS40" s="46"/>
+    </row>
+    <row r="41" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="41">
+        <f>COUNTIF(B31:B40,"&lt;&gt;"&amp;"")</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="38">
+        <f>MIN(C31:C40)</f>
+        <v>44785</v>
+      </c>
+      <c r="D41" s="39">
+        <f>SUM(D31:D40)</f>
+        <v>140</v>
+      </c>
+      <c r="E41" s="38">
+        <f>MAX(E31:E40)</f>
+        <v>45107</v>
+      </c>
+      <c r="F41" s="38">
+        <f>MIN(F31:F40)</f>
+        <v>45047</v>
+      </c>
+      <c r="G41" s="39">
+        <f>SUM(G31:G40)</f>
+        <v>58</v>
+      </c>
+      <c r="H41" s="38">
+        <f ca="1">MAX(H31:H40)</f>
+        <v>45093.375</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="55">
+        <f t="shared" si="37"/>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="K41" s="15"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -3737,20 +3707,40 @@
       <c r="AP41" s="11"/>
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
-      <c r="AS41" s="49"/>
-    </row>
-    <row r="42" spans="1:45" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="16"/>
+      <c r="AS41" s="46"/>
+    </row>
+    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49"/>
+      <c r="B42" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="28">
+        <v>44908</v>
+      </c>
+      <c r="D42" s="27">
+        <v>5</v>
+      </c>
+      <c r="E42" s="28">
+        <v>45086</v>
+      </c>
+      <c r="F42" s="28">
+        <v>45079</v>
+      </c>
+      <c r="G42" s="27">
+        <v>4</v>
+      </c>
+      <c r="H42" s="28">
+        <f ca="1">IF(ISBLANK($I42), IF($F42 &gt; TODAY(), $F42, TODAY()) + (($D42-IF(ISBLANK($G42),0,$G42))/8), $I42)</f>
+        <v>45079</v>
+      </c>
+      <c r="I42" s="28">
+        <v>45079</v>
+      </c>
+      <c r="J42" s="57">
+        <f>actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K42" s="15"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -3784,46 +3774,38 @@
       <c r="AP42" s="11"/>
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
-      <c r="AS42" s="49"/>
-    </row>
-    <row r="43" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="43">
-        <f>COUNTIF(B35:B42,"&lt;&gt;"&amp;"")</f>
-        <v>7</v>
-      </c>
-      <c r="C43" s="40">
-        <f>MIN(C35:C42)</f>
-        <v>44938</v>
-      </c>
-      <c r="D43" s="41">
-        <f>SUM(D35:D42)</f>
-        <v>116</v>
-      </c>
-      <c r="E43" s="40">
-        <f>MAX(E35:E42)</f>
-        <v>45093</v>
-      </c>
-      <c r="F43" s="40">
-        <f>MIN(F35:F42)</f>
-        <v>45047</v>
-      </c>
-      <c r="G43" s="41">
-        <f>SUM(G35:G42)</f>
-        <v>68</v>
-      </c>
-      <c r="H43" s="40">
-        <f ca="1">MAX(H35:H42)</f>
-        <v>45090.375</v>
-      </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="54">
-        <f t="shared" si="35"/>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="K43" s="16"/>
+      <c r="AS42" s="46"/>
+    </row>
+    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="28">
+        <v>44999</v>
+      </c>
+      <c r="D43" s="27">
+        <v>15</v>
+      </c>
+      <c r="E43" s="28">
+        <v>45086</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27">
+        <v>12</v>
+      </c>
+      <c r="H43" s="28">
+        <f ca="1">IF(ISBLANK($I43), IF($F43 &gt; TODAY(), $F43, TODAY()) + (($D43-IF(ISBLANK($G43),0,$G43))/8), $I43)</f>
+        <v>45072</v>
+      </c>
+      <c r="I43" s="28">
+        <v>45072</v>
+      </c>
+      <c r="J43" s="57">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="15"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -3857,40 +3839,40 @@
       <c r="AP43" s="11"/>
       <c r="AQ43" s="11"/>
       <c r="AR43" s="11"/>
-      <c r="AS43" s="49"/>
+      <c r="AS43" s="46"/>
     </row>
     <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52"/>
-      <c r="B44" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="30">
-        <v>44908</v>
-      </c>
-      <c r="D44" s="29">
-        <v>5</v>
-      </c>
-      <c r="E44" s="30">
-        <v>45086</v>
-      </c>
-      <c r="F44" s="30">
-        <v>45079</v>
-      </c>
-      <c r="G44" s="29">
-        <v>4</v>
-      </c>
-      <c r="H44" s="30">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="28">
+        <v>45076</v>
+      </c>
+      <c r="D44" s="27">
+        <v>6</v>
+      </c>
+      <c r="E44" s="28">
+        <v>45093</v>
+      </c>
+      <c r="F44" s="28">
+        <v>45075</v>
+      </c>
+      <c r="G44" s="27">
+        <v>10</v>
+      </c>
+      <c r="H44" s="28">
         <f ca="1">IF(ISBLANK($I44), IF($F44 &gt; TODAY(), $F44, TODAY()) + (($D44-IF(ISBLANK($G44),0,$G44))/8), $I44)</f>
-        <v>45079</v>
-      </c>
-      <c r="I44" s="30">
-        <v>45079</v>
-      </c>
-      <c r="J44" s="22">
-        <f>actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K44" s="16"/>
+        <v>45084</v>
+      </c>
+      <c r="I44" s="28">
+        <v>45084</v>
+      </c>
+      <c r="J44" s="57">
+        <f t="shared" si="37"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K44" s="15"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -3924,35 +3906,20 @@
       <c r="AP44" s="11"/>
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
-      <c r="AS44" s="49"/>
+      <c r="AS44" s="46"/>
     </row>
     <row r="45" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="30">
-        <v>44999</v>
-      </c>
-      <c r="D45" s="29">
-        <v>15</v>
-      </c>
-      <c r="E45" s="30">
-        <v>45086</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="29">
-        <v>12</v>
-      </c>
-      <c r="H45" s="30">
-        <f ca="1">IF(ISBLANK($I45), IF($F45 &gt; TODAY(), $F45, TODAY()) + (($D45-IF(ISBLANK($G45),0,$G45))/8), $I45)</f>
-        <v>45072</v>
-      </c>
-      <c r="I45" s="30">
-        <v>45072</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="16"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -3986,20 +3953,20 @@
       <c r="AP45" s="11"/>
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
-      <c r="AS45" s="49"/>
+      <c r="AS45" s="46"/>
     </row>
     <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="16"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -4033,20 +4000,20 @@
       <c r="AP46" s="11"/>
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
-      <c r="AS46" s="49"/>
+      <c r="AS46" s="46"/>
     </row>
     <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="16"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="15"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -4080,20 +4047,20 @@
       <c r="AP47" s="11"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
-      <c r="AS47" s="49"/>
+      <c r="AS47" s="46"/>
     </row>
     <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="16"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -4127,20 +4094,20 @@
       <c r="AP48" s="11"/>
       <c r="AQ48" s="11"/>
       <c r="AR48" s="11"/>
-      <c r="AS48" s="49"/>
+      <c r="AS48" s="46"/>
     </row>
     <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="16"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -4174,20 +4141,20 @@
       <c r="AP49" s="11"/>
       <c r="AQ49" s="11"/>
       <c r="AR49" s="11"/>
-      <c r="AS49" s="49"/>
+      <c r="AS49" s="46"/>
     </row>
     <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="16"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4221,20 +4188,20 @@
       <c r="AP50" s="11"/>
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
-      <c r="AS50" s="49"/>
+      <c r="AS50" s="46"/>
     </row>
     <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="16"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -4268,20 +4235,20 @@
       <c r="AP51" s="11"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
-      <c r="AS51" s="49"/>
-    </row>
-    <row r="52" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="16"/>
+      <c r="AS51" s="46"/>
+    </row>
+    <row r="52" spans="1:45" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="15"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -4315,171 +4282,80 @@
       <c r="AP52" s="11"/>
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
-      <c r="AS52" s="49"/>
-    </row>
-    <row r="53" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="49"/>
-    </row>
-    <row r="54" spans="1:45" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="49"/>
-    </row>
-    <row r="55" spans="1:45" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="43">
-        <f>COUNTIF(B44:B54,"&lt;&gt;"&amp;"")</f>
-        <v>2</v>
-      </c>
-      <c r="C55" s="40">
-        <f>MAX(C44:C54)</f>
-        <v>44999</v>
-      </c>
-      <c r="D55" s="41">
-        <f>SUM(D44:D54)</f>
-        <v>20</v>
-      </c>
-      <c r="E55" s="40">
-        <f>MAX(E44:E54)</f>
-        <v>45086</v>
-      </c>
-      <c r="F55" s="40">
-        <f>MAX(F44:F54)</f>
+      <c r="AS52" s="46"/>
+    </row>
+    <row r="53" spans="1:45" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="41">
+        <f>COUNTIF(B42:B52,"&lt;&gt;"&amp;"")</f>
+        <v>3</v>
+      </c>
+      <c r="C53" s="38">
+        <f>MAX(C42:C52)</f>
+        <v>45076</v>
+      </c>
+      <c r="D53" s="39">
+        <f>SUM(D42:D52)</f>
+        <v>26</v>
+      </c>
+      <c r="E53" s="38">
+        <f>MAX(E42:E52)</f>
+        <v>45093</v>
+      </c>
+      <c r="F53" s="38">
+        <f>MAX(F42:F52)</f>
         <v>45079</v>
       </c>
-      <c r="G55" s="41">
-        <f>SUM(G44:G54)</f>
-        <v>16</v>
-      </c>
-      <c r="H55" s="40">
-        <f ca="1">MAX(H44:H54)</f>
-        <v>45079</v>
-      </c>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="18"/>
-      <c r="AI55" s="18"/>
-      <c r="AJ55" s="18"/>
-      <c r="AK55" s="18"/>
-      <c r="AL55" s="18"/>
-      <c r="AM55" s="18"/>
-      <c r="AN55" s="18"/>
-      <c r="AO55" s="18"/>
-      <c r="AP55" s="18"/>
-      <c r="AQ55" s="18"/>
-      <c r="AR55" s="18"/>
-      <c r="AS55" s="51"/>
+      <c r="G53" s="39">
+        <f>SUM(G42:G52)</f>
+        <v>26</v>
+      </c>
+      <c r="H53" s="38">
+        <f ca="1">MAX(H42:H52)</f>
+        <v>45084</v>
+      </c>
+      <c r="I53" s="38"/>
+      <c r="J53" s="55">
+        <f t="shared" ref="J53" si="38">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4489,7 +4365,7 @@
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AM4:AS4"/>
   </mergeCells>
-  <conditionalFormatting sqref="J7:J55">
+  <conditionalFormatting sqref="J7:J53">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4503,32 +4379,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:AS28 K31:AS55">
-    <cfRule type="expression" dxfId="7" priority="13">
+  <conditionalFormatting sqref="K7:AS53">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>K$5=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17">
-      <formula>AND(K$5&gt;=$F5,K$5&lt;=$H5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="19">
-      <formula>AND(K$5&gt;=$C7,K$5&lt;=$E7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>AND(K$5&gt;=$C7,K$5&lt;=$E7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:AS30">
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>K$5=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND(K$5&gt;=$F26,K$5&lt;=$H26)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
-      <formula>AND(K$5&gt;=$C29,K$5&lt;=$E29)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="35">
-      <formula>AND(K$5&gt;=$C29,K$5&lt;=$E29)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4581,7 +4434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J7:J55</xm:sqref>
+          <xm:sqref>J7:J53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Status Reports/Projects/Justin_Popes_Projects_2023.xlsx
+++ b/Status Reports/Projects/Justin_Popes_Projects_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Status Reports\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20973B62-97D4-478B-B8E1-0C80D7BE8D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E716FD-17F9-4471-B404-564AA9B9919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-32520" windowWidth="29040" windowHeight="15720" xr2:uid="{7FCAA3D1-8F9C-4570-9EB2-043186F205B0}"/>
   </bookViews>
@@ -698,6 +698,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -706,27 +727,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1175,56 +1175,56 @@
       <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="59">
         <f>K5</f>
         <v>45061</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="52">
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="59">
         <f>R5</f>
         <v>45068</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="52">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="59">
         <f>Y5</f>
         <v>45075</v>
       </c>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="52">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="59">
         <f>AF5</f>
         <v>45082</v>
       </c>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="52">
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="59">
         <f>AM5</f>
         <v>45089</v>
       </c>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="54"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="61"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
@@ -2014,7 +2014,7 @@
         <v>45086</v>
       </c>
       <c r="I13" s="38"/>
-      <c r="J13" s="55">
+      <c r="J13" s="52">
         <f t="shared" si="31"/>
         <v>2.0136986301369864</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>45110.5</v>
       </c>
       <c r="I14" s="35"/>
-      <c r="J14" s="56">
+      <c r="J14" s="53">
         <f t="shared" ref="J14:J22" si="33">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.5</v>
       </c>
@@ -2133,10 +2133,10 @@
       <c r="G15" s="13"/>
       <c r="H15" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="57">
+      <c r="J15" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2188,10 +2188,10 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="57">
+      <c r="J16" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2243,10 +2243,10 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="57">
+      <c r="J17" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2298,10 +2298,10 @@
       <c r="G18" s="13"/>
       <c r="H18" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="57">
+      <c r="J18" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2353,10 +2353,10 @@
       <c r="G19" s="13"/>
       <c r="H19" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="57">
+      <c r="J19" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2408,10 +2408,10 @@
       <c r="G20" s="13"/>
       <c r="H20" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="57">
+      <c r="J20" s="54">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2463,10 +2463,10 @@
       <c r="G21" s="19"/>
       <c r="H21" s="12">
         <f t="shared" ca="1" si="32"/>
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="58">
+      <c r="J21" s="55">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>45110.5</v>
       </c>
       <c r="I22" s="31"/>
-      <c r="J22" s="59">
+      <c r="J22" s="56">
         <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="56"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="49"/>
       <c r="AS23" s="51"/>
     </row>
@@ -2617,7 +2617,7 @@
       <c r="I24" s="12">
         <v>45006</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="54">
         <f t="shared" ref="J24:J30" si="35">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.9014049790485581</v>
       </c>
@@ -2679,10 +2679,10 @@
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="34"/>
-        <v>45090.375</v>
+        <v>45093.375</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="57">
+      <c r="J25" s="54">
         <f t="shared" si="35"/>
         <v>0.81666666666666665</v>
       </c>
@@ -2740,10 +2740,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="12">
         <f t="shared" ca="1" si="34"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="57">
+      <c r="J26" s="54">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -2802,10 +2802,10 @@
       <c r="G27" s="13"/>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="34"/>
-        <v>45089.5</v>
+        <v>45092.5</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="57">
+      <c r="J27" s="54">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -2863,10 +2863,10 @@
       <c r="G28" s="13"/>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="34"/>
-        <v>45089.5</v>
+        <v>45092.5</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="57">
+      <c r="J28" s="54">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -2924,10 +2924,10 @@
       <c r="G29" s="13"/>
       <c r="H29" s="12">
         <f t="shared" ca="1" si="34"/>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="57">
+      <c r="J29" s="54">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -2994,10 +2994,10 @@
       </c>
       <c r="H30" s="38">
         <f ca="1">MAX(H23:H29)</f>
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="I30" s="38"/>
-      <c r="J30" s="55">
+      <c r="J30" s="52">
         <f t="shared" si="35"/>
         <v>0.83323287120755474</v>
       </c>
@@ -3059,9 +3059,9 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" ref="H31:H36" ca="1" si="36">IF(ISBLANK($I31), IF($F31 &gt; TODAY(), $F31, TODAY()) + (($D31-IF(ISBLANK($G31),0,$G31))/8), $I31)</f>
-        <v>45089.625</v>
-      </c>
-      <c r="J31" s="60">
+        <v>45092.625</v>
+      </c>
+      <c r="J31" s="57">
         <f t="shared" ref="J31:J44" si="37">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3119,16 +3119,16 @@
         <v>45047</v>
       </c>
       <c r="G32" s="27">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H32" s="28">
         <f t="shared" ca="1" si="36"/>
-        <v>45093.375</v>
+        <v>45093.875</v>
       </c>
       <c r="I32" s="28"/>
-      <c r="J32" s="57">
+      <c r="J32" s="54">
         <f t="shared" si="37"/>
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="11"/>
@@ -3186,10 +3186,10 @@
       <c r="G33" s="27"/>
       <c r="H33" s="28">
         <f t="shared" ca="1" si="36"/>
-        <v>45090.25</v>
+        <v>45093.25</v>
       </c>
       <c r="I33" s="28"/>
-      <c r="J33" s="57">
+      <c r="J33" s="54">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -3247,16 +3247,18 @@
         <v>45079</v>
       </c>
       <c r="G34" s="27">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H34" s="28">
         <f t="shared" ca="1" si="36"/>
-        <v>45089.125</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="57">
+        <v>45089</v>
+      </c>
+      <c r="I34" s="28">
+        <v>45089</v>
+      </c>
+      <c r="J34" s="54">
         <f t="shared" si="37"/>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="11"/>
@@ -3316,10 +3318,10 @@
       </c>
       <c r="H35" s="28">
         <f t="shared" ca="1" si="36"/>
-        <v>45088.75</v>
+        <v>45091.75</v>
       </c>
       <c r="I35" s="28"/>
-      <c r="J35" s="57">
+      <c r="J35" s="54">
         <f t="shared" si="37"/>
         <v>1.5</v>
       </c>
@@ -3377,16 +3379,16 @@
         <v>45073</v>
       </c>
       <c r="G36" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="28">
         <f t="shared" ca="1" si="36"/>
-        <v>45089.375</v>
+        <v>45092.25</v>
       </c>
       <c r="I36" s="28"/>
-      <c r="J36" s="57">
+      <c r="J36" s="54">
         <f t="shared" si="37"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="11"/>
@@ -3442,7 +3444,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="61"/>
+      <c r="J37" s="58"/>
       <c r="K37" s="15"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -3497,7 +3499,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="61"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="15"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -3552,7 +3554,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="61"/>
+      <c r="J39" s="58"/>
       <c r="K39" s="15"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -3599,7 +3601,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="61"/>
+      <c r="J40" s="58"/>
       <c r="K40" s="15"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -3662,16 +3664,16 @@
       </c>
       <c r="G41" s="39">
         <f>SUM(G31:G40)</f>
-        <v>58</v>
+        <v>80.5</v>
       </c>
       <c r="H41" s="38">
         <f ca="1">MAX(H31:H40)</f>
-        <v>45093.375</v>
+        <v>45093.875</v>
       </c>
       <c r="I41" s="38"/>
-      <c r="J41" s="55">
+      <c r="J41" s="52">
         <f t="shared" si="37"/>
-        <v>0.41428571428571431</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="11"/>
@@ -3709,7 +3711,7 @@
       <c r="AR41" s="11"/>
       <c r="AS41" s="46"/>
     </row>
-    <row r="42" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
       <c r="B42" s="26" t="s">
         <v>25</v>
@@ -3736,7 +3738,7 @@
       <c r="I42" s="28">
         <v>45079</v>
       </c>
-      <c r="J42" s="57">
+      <c r="J42" s="54">
         <f>actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>0.8</v>
       </c>
@@ -3776,7 +3778,7 @@
       <c r="AR42" s="11"/>
       <c r="AS42" s="46"/>
     </row>
-    <row r="43" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="B43" s="26" t="s">
         <v>29</v>
@@ -3801,7 +3803,7 @@
       <c r="I43" s="28">
         <v>45072</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="54">
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
@@ -3841,7 +3843,7 @@
       <c r="AR43" s="11"/>
       <c r="AS43" s="46"/>
     </row>
-    <row r="44" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="26" t="s">
         <v>31</v>
@@ -3868,7 +3870,7 @@
       <c r="I44" s="28">
         <v>45084</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="54">
         <f t="shared" si="37"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="AR44" s="11"/>
       <c r="AS44" s="46"/>
     </row>
-    <row r="45" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="28"/>
@@ -3918,7 +3920,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="57"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="15"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -3955,7 +3957,7 @@
       <c r="AR45" s="11"/>
       <c r="AS45" s="46"/>
     </row>
-    <row r="46" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="28"/>
@@ -3965,7 +3967,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="57"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="15"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
@@ -4002,7 +4004,7 @@
       <c r="AR46" s="11"/>
       <c r="AS46" s="46"/>
     </row>
-    <row r="47" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="28"/>
@@ -4012,7 +4014,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="57"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="15"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -4049,7 +4051,7 @@
       <c r="AR47" s="11"/>
       <c r="AS47" s="46"/>
     </row>
-    <row r="48" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="28"/>
@@ -4059,7 +4061,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="57"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="15"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -4096,7 +4098,7 @@
       <c r="AR48" s="11"/>
       <c r="AS48" s="46"/>
     </row>
-    <row r="49" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="28"/>
@@ -4106,7 +4108,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="57"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="15"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -4143,7 +4145,7 @@
       <c r="AR49" s="11"/>
       <c r="AS49" s="46"/>
     </row>
-    <row r="50" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="28"/>
@@ -4153,7 +4155,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="57"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="15"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -4190,7 +4192,7 @@
       <c r="AR50" s="11"/>
       <c r="AS50" s="46"/>
     </row>
-    <row r="51" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="28"/>
@@ -4200,7 +4202,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="57"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="15"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4237,7 +4239,7 @@
       <c r="AR51" s="11"/>
       <c r="AS51" s="46"/>
     </row>
-    <row r="52" spans="1:45" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:45" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="C52" s="28"/>
@@ -4247,7 +4249,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="61"/>
+      <c r="J52" s="58"/>
       <c r="K52" s="15"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -4284,7 +4286,7 @@
       <c r="AR52" s="11"/>
       <c r="AS52" s="46"/>
     </row>
-    <row r="53" spans="1:45" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="40" t="s">
         <v>34</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>45084</v>
       </c>
       <c r="I53" s="38"/>
-      <c r="J53" s="55">
+      <c r="J53" s="52">
         <f t="shared" ref="J53" si="38">actual_total_effort/IF(ISBLANK(planned_total_effort), 1, planned_total_effort)</f>
         <v>1</v>
       </c>
